--- a/database/industries/zeraat/simorgh/cost/yearly.xlsx
+++ b/database/industries/zeraat/simorgh/cost/yearly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\zeraat\simorgh\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\zeraat\simorgh\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD3E7505-6122-417E-8A49-78B2D74185C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7680"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -19,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1320" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1319" uniqueCount="77">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>سیمرغ-سیمرغ</t>
@@ -33,9 +34,6 @@
     <t>بهای تمام شده</t>
   </si>
   <si>
-    <t>دوازده ماهه منتهی به 1396/12</t>
-  </si>
-  <si>
     <t>دوازده ماهه منتهی به 1397/09</t>
   </si>
   <si>
@@ -46,6 +44,9 @@
   </si>
   <si>
     <t>دوازده ماهه منتهی به 1400/09</t>
+  </si>
+  <si>
+    <t>دوازده ماهه منتهی به 1401/09</t>
   </si>
   <si>
     <t>مواد مستقیم مصرفی</t>
@@ -255,7 +256,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -425,7 +426,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -437,7 +438,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -484,6 +485,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -519,6 +537,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -670,7 +705,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I322"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -797,19 +832,19 @@
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
-        <v>2036043</v>
+        <v>2320227</v>
       </c>
       <c r="F10" s="9">
-        <v>2320227</v>
+        <v>4294255</v>
       </c>
       <c r="G10" s="9">
-        <v>4294255</v>
+        <v>4222189</v>
       </c>
       <c r="H10" s="9">
-        <v>4222189</v>
+        <v>6754096</v>
       </c>
       <c r="I10" s="9">
-        <v>6754096</v>
+        <v>13535466</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
@@ -819,19 +854,19 @@
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>375728</v>
+        <v>377514</v>
       </c>
       <c r="F11" s="11">
-        <v>377514</v>
+        <v>686557</v>
       </c>
       <c r="G11" s="11">
-        <v>686557</v>
+        <v>917852</v>
       </c>
       <c r="H11" s="11">
-        <v>917852</v>
+        <v>1381738</v>
       </c>
       <c r="I11" s="11">
-        <v>1381738</v>
+        <v>2205394</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
@@ -841,19 +876,19 @@
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
-        <v>801639</v>
+        <v>720904</v>
       </c>
       <c r="F12" s="9">
-        <v>720904</v>
+        <v>1328500</v>
       </c>
       <c r="G12" s="9">
-        <v>1328500</v>
+        <v>1378078</v>
       </c>
       <c r="H12" s="9">
-        <v>1378078</v>
+        <v>2485208</v>
       </c>
       <c r="I12" s="9">
-        <v>2485208</v>
+        <v>2955957</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
@@ -863,19 +898,19 @@
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
-        <v>3213410</v>
+        <v>3418645</v>
       </c>
       <c r="F13" s="13">
-        <v>3418645</v>
+        <v>6309312</v>
       </c>
       <c r="G13" s="13">
-        <v>6309312</v>
+        <v>6518119</v>
       </c>
       <c r="H13" s="13">
-        <v>6518119</v>
+        <v>10621042</v>
       </c>
       <c r="I13" s="13">
-        <v>10621042</v>
+        <v>18696817</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
@@ -907,19 +942,19 @@
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
       <c r="E15" s="11">
-        <v>0</v>
+        <v>-4062</v>
       </c>
       <c r="F15" s="11">
-        <v>-4062</v>
+        <v>-56781</v>
       </c>
       <c r="G15" s="11">
-        <v>-56781</v>
+        <v>0</v>
       </c>
       <c r="H15" s="11">
-        <v>0</v>
+        <v>-16670</v>
       </c>
       <c r="I15" s="11">
-        <v>-16670</v>
+        <v>-12155</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
@@ -929,7 +964,7 @@
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
-        <v>-546464</v>
+        <v>0</v>
       </c>
       <c r="F16" s="9">
         <v>0</v>
@@ -959,11 +994,11 @@
       <c r="G17" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H17" s="11" t="s">
-        <v>17</v>
+      <c r="H17" s="11">
+        <v>-1362661</v>
       </c>
       <c r="I17" s="11">
-        <v>-1362661</v>
+        <v>-3313118</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
@@ -973,19 +1008,19 @@
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15">
-        <v>2666946</v>
+        <v>3414583</v>
       </c>
       <c r="F18" s="15">
-        <v>3414583</v>
+        <v>6252531</v>
       </c>
       <c r="G18" s="15">
-        <v>6252531</v>
+        <v>6518119</v>
       </c>
       <c r="H18" s="15">
-        <v>6518119</v>
+        <v>9241711</v>
       </c>
       <c r="I18" s="15">
-        <v>9241711</v>
+        <v>15371544</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
@@ -995,19 +1030,19 @@
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11">
-        <v>0</v>
+        <v>29349</v>
       </c>
       <c r="F19" s="11">
-        <v>29349</v>
+        <v>147404</v>
       </c>
       <c r="G19" s="11">
-        <v>147404</v>
+        <v>18393</v>
       </c>
       <c r="H19" s="11">
-        <v>18393</v>
+        <v>0</v>
       </c>
       <c r="I19" s="11">
-        <v>114366</v>
+        <v>132214</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
@@ -1017,19 +1052,19 @@
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9">
-        <v>0</v>
+        <v>-59381</v>
       </c>
       <c r="F20" s="9">
-        <v>-59381</v>
+        <v>-18393</v>
       </c>
       <c r="G20" s="9">
-        <v>-18393</v>
+        <v>-59501</v>
       </c>
       <c r="H20" s="9">
-        <v>-59501</v>
+        <v>-72713</v>
       </c>
       <c r="I20" s="9">
-        <v>-72713</v>
+        <v>-88580</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
@@ -1039,19 +1074,19 @@
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13">
-        <v>2666946</v>
+        <v>3384551</v>
       </c>
       <c r="F21" s="13">
-        <v>3384551</v>
+        <v>6381542</v>
       </c>
       <c r="G21" s="13">
-        <v>6381542</v>
+        <v>6477011</v>
       </c>
       <c r="H21" s="13">
-        <v>6477011</v>
+        <v>9168998</v>
       </c>
       <c r="I21" s="13">
-        <v>9168998</v>
+        <v>15415178</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
@@ -1094,16 +1129,16 @@
         <v>23</v>
       </c>
       <c r="F25" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G25" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G25" s="6" t="s">
+      <c r="H25" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H25" s="6" t="s">
+      <c r="I25" s="6" t="s">
         <v>7</v>
-      </c>
-      <c r="I25" s="6" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
@@ -1750,16 +1785,16 @@
         <v>23</v>
       </c>
       <c r="F55" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G55" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G55" s="6" t="s">
+      <c r="H55" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H55" s="6" t="s">
+      <c r="I55" s="6" t="s">
         <v>7</v>
-      </c>
-      <c r="I55" s="6" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.25">
@@ -2406,16 +2441,16 @@
         <v>23</v>
       </c>
       <c r="F85" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G85" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G85" s="6" t="s">
+      <c r="H85" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H85" s="6" t="s">
+      <c r="I85" s="6" t="s">
         <v>7</v>
-      </c>
-      <c r="I85" s="6" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="86" spans="2:9" x14ac:dyDescent="0.25">
@@ -3062,16 +3097,16 @@
         <v>23</v>
       </c>
       <c r="F115" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G115" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G115" s="6" t="s">
+      <c r="H115" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H115" s="6" t="s">
+      <c r="I115" s="6" t="s">
         <v>7</v>
-      </c>
-      <c r="I115" s="6" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="116" spans="2:9" x14ac:dyDescent="0.25">
@@ -3718,16 +3753,16 @@
         <v>23</v>
       </c>
       <c r="F145" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G145" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G145" s="6" t="s">
+      <c r="H145" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H145" s="6" t="s">
+      <c r="I145" s="6" t="s">
         <v>7</v>
-      </c>
-      <c r="I145" s="6" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="146" spans="2:9" x14ac:dyDescent="0.25">
@@ -4378,16 +4413,16 @@
         <v>23</v>
       </c>
       <c r="F175" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G175" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G175" s="6" t="s">
+      <c r="H175" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H175" s="6" t="s">
+      <c r="I175" s="6" t="s">
         <v>7</v>
-      </c>
-      <c r="I175" s="6" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="176" spans="2:9" x14ac:dyDescent="0.25">
@@ -5038,16 +5073,16 @@
         <v>23</v>
       </c>
       <c r="F205" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G205" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G205" s="6" t="s">
+      <c r="H205" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H205" s="6" t="s">
+      <c r="I205" s="6" t="s">
         <v>7</v>
-      </c>
-      <c r="I205" s="6" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="206" spans="2:9" x14ac:dyDescent="0.25">
@@ -5698,16 +5733,16 @@
         <v>23</v>
       </c>
       <c r="F235" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G235" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G235" s="6" t="s">
+      <c r="H235" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H235" s="6" t="s">
+      <c r="I235" s="6" t="s">
         <v>7</v>
-      </c>
-      <c r="I235" s="6" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="236" spans="2:9" x14ac:dyDescent="0.25">
@@ -6358,16 +6393,16 @@
         <v>23</v>
       </c>
       <c r="F265" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G265" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G265" s="6" t="s">
+      <c r="H265" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H265" s="6" t="s">
+      <c r="I265" s="6" t="s">
         <v>7</v>
-      </c>
-      <c r="I265" s="6" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="266" spans="2:9" x14ac:dyDescent="0.25">
@@ -6564,16 +6599,16 @@
         <v>23</v>
       </c>
       <c r="F276" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G276" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G276" s="6" t="s">
+      <c r="H276" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H276" s="6" t="s">
+      <c r="I276" s="6" t="s">
         <v>7</v>
-      </c>
-      <c r="I276" s="6" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="277" spans="2:9" x14ac:dyDescent="0.25">
@@ -6770,16 +6805,16 @@
         <v>23</v>
       </c>
       <c r="F287" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G287" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G287" s="6" t="s">
+      <c r="H287" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H287" s="6" t="s">
+      <c r="I287" s="6" t="s">
         <v>7</v>
-      </c>
-      <c r="I287" s="6" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="288" spans="2:9" x14ac:dyDescent="0.25">
@@ -6976,16 +7011,16 @@
         <v>23</v>
       </c>
       <c r="F298" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G298" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G298" s="6" t="s">
+      <c r="H298" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H298" s="6" t="s">
+      <c r="I298" s="6" t="s">
         <v>7</v>
-      </c>
-      <c r="I298" s="6" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="299" spans="2:9" x14ac:dyDescent="0.25">
@@ -7255,19 +7290,19 @@
       <c r="C313" s="11"/>
       <c r="D313" s="11"/>
       <c r="E313" s="11">
-        <v>0</v>
+        <v>125284</v>
       </c>
       <c r="F313" s="11">
-        <v>125284</v>
+        <v>0</v>
       </c>
       <c r="G313" s="11">
-        <v>0</v>
+        <v>234801</v>
       </c>
       <c r="H313" s="11">
-        <v>234801</v>
+        <v>0</v>
       </c>
       <c r="I313" s="11">
-        <v>0</v>
+        <v>564084</v>
       </c>
     </row>
     <row r="314" spans="2:9" x14ac:dyDescent="0.25">
@@ -7321,19 +7356,19 @@
       <c r="C316" s="9"/>
       <c r="D316" s="9"/>
       <c r="E316" s="9">
-        <v>20602</v>
+        <v>25905</v>
       </c>
       <c r="F316" s="9">
-        <v>25905</v>
+        <v>31509</v>
       </c>
       <c r="G316" s="9">
-        <v>31509</v>
+        <v>48289</v>
       </c>
       <c r="H316" s="9">
-        <v>48289</v>
+        <v>0</v>
       </c>
       <c r="I316" s="9">
-        <v>0</v>
+        <v>89266</v>
       </c>
     </row>
     <row r="317" spans="2:9" x14ac:dyDescent="0.25">
@@ -7343,19 +7378,19 @@
       <c r="C317" s="11"/>
       <c r="D317" s="11"/>
       <c r="E317" s="11">
-        <v>199996</v>
+        <v>28867</v>
       </c>
       <c r="F317" s="11">
-        <v>28867</v>
+        <v>45138</v>
       </c>
       <c r="G317" s="11">
-        <v>45138</v>
+        <v>39468</v>
       </c>
       <c r="H317" s="11">
-        <v>39468</v>
+        <v>0</v>
       </c>
       <c r="I317" s="11">
-        <v>0</v>
+        <v>45868</v>
       </c>
     </row>
     <row r="318" spans="2:9" x14ac:dyDescent="0.25">
@@ -7365,19 +7400,19 @@
       <c r="C318" s="9"/>
       <c r="D318" s="9"/>
       <c r="E318" s="9">
-        <v>469553</v>
+        <v>406427</v>
       </c>
       <c r="F318" s="9">
-        <v>406427</v>
+        <v>80151</v>
       </c>
       <c r="G318" s="9">
-        <v>80151</v>
+        <v>81945</v>
       </c>
       <c r="H318" s="9">
-        <v>81945</v>
+        <v>0</v>
       </c>
       <c r="I318" s="9">
-        <v>0</v>
+        <v>1392627</v>
       </c>
     </row>
     <row r="319" spans="2:9" x14ac:dyDescent="0.25">
@@ -7387,19 +7422,19 @@
       <c r="C319" s="11"/>
       <c r="D319" s="11"/>
       <c r="E319" s="11">
-        <v>81729</v>
+        <v>61765</v>
       </c>
       <c r="F319" s="11">
-        <v>61765</v>
+        <v>142341</v>
       </c>
       <c r="G319" s="11">
-        <v>142341</v>
+        <v>160223</v>
       </c>
       <c r="H319" s="11">
-        <v>160223</v>
+        <v>0</v>
       </c>
       <c r="I319" s="11">
-        <v>0</v>
+        <v>485875</v>
       </c>
     </row>
     <row r="320" spans="2:9" x14ac:dyDescent="0.25">
@@ -7431,19 +7466,19 @@
       <c r="C321" s="11"/>
       <c r="D321" s="11"/>
       <c r="E321" s="11">
-        <v>29759</v>
+        <v>72656</v>
       </c>
       <c r="F321" s="11">
-        <v>72656</v>
+        <v>1029361</v>
       </c>
       <c r="G321" s="11">
-        <v>1029361</v>
+        <v>813352</v>
       </c>
       <c r="H321" s="11">
-        <v>813352</v>
+        <v>0</v>
       </c>
       <c r="I321" s="11">
-        <v>0</v>
+        <v>16119097</v>
       </c>
     </row>
     <row r="322" spans="2:9" x14ac:dyDescent="0.25">
@@ -7453,19 +7488,19 @@
       <c r="C322" s="15"/>
       <c r="D322" s="15"/>
       <c r="E322" s="15">
-        <v>801639</v>
+        <v>720904</v>
       </c>
       <c r="F322" s="15">
-        <v>720904</v>
+        <v>1328500</v>
       </c>
       <c r="G322" s="15">
-        <v>1328500</v>
+        <v>1378078</v>
       </c>
       <c r="H322" s="15">
-        <v>1378078</v>
+        <v>0</v>
       </c>
       <c r="I322" s="15">
-        <v>0</v>
+        <v>18696817</v>
       </c>
     </row>
   </sheetData>
